--- a/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(バッチ)_BA10601_期間内プロジェクト一覧出力バッチ.xlsx
+++ b/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_リクエスト・取引単体(バッチ)_BA10601_期間内プロジェクト一覧出力バッチ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A150CCF0-7245-4F63-8038-E96E5283C0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC53EFE-745F-4CAF-BA52-09C2519D3BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="-120" windowWidth="27885" windowHeight="16440" tabRatio="563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="20" r:id="rId1"/>
@@ -9040,8 +9040,98 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="20" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -9142,93 +9232,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="20" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -9237,9 +9240,6 @@
     </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -10183,12 +10183,12 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="125">
+      <c r="I25" s="126">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>44719</v>
       </c>
-      <c r="J25" s="125"/>
-      <c r="K25" s="125"/>
+      <c r="J25" s="126"/>
+      <c r="K25" s="126"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="3"/>
@@ -10744,57 +10744,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="102" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="132" t="s">
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="141" t="s">
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="171" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="142"/>
-      <c r="Q1" s="142"/>
-      <c r="R1" s="143"/>
-      <c r="S1" s="150" t="s">
+      <c r="P1" s="172"/>
+      <c r="Q1" s="172"/>
+      <c r="R1" s="173"/>
+      <c r="S1" s="180" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="151"/>
-      <c r="U1" s="151"/>
-      <c r="V1" s="151"/>
-      <c r="W1" s="151"/>
-      <c r="X1" s="151"/>
-      <c r="Y1" s="151"/>
-      <c r="Z1" s="152"/>
-      <c r="AA1" s="126" t="s">
+      <c r="T1" s="181"/>
+      <c r="U1" s="181"/>
+      <c r="V1" s="181"/>
+      <c r="W1" s="181"/>
+      <c r="X1" s="181"/>
+      <c r="Y1" s="181"/>
+      <c r="Z1" s="182"/>
+      <c r="AA1" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="127"/>
-      <c r="AC1" s="128" t="str">
+      <c r="AB1" s="157"/>
+      <c r="AC1" s="158" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="129"/>
-      <c r="AE1" s="129"/>
-      <c r="AF1" s="130"/>
-      <c r="AG1" s="135">
+      <c r="AD1" s="159"/>
+      <c r="AE1" s="159"/>
+      <c r="AF1" s="160"/>
+      <c r="AG1" s="165">
         <f>IF(D8="","",D8)</f>
         <v>44719</v>
       </c>
-      <c r="AH1" s="136"/>
-      <c r="AI1" s="137"/>
+      <c r="AH1" s="166"/>
+      <c r="AI1" s="167"/>
       <c r="AJ1" s="100"/>
       <c r="AK1" s="100"/>
       <c r="AL1" s="100"/>
@@ -10802,53 +10802,53 @@
       <c r="AN1" s="101"/>
     </row>
     <row r="2" spans="1:40" s="102" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="132" t="s">
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="162" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="144"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="146"/>
-      <c r="S2" s="153"/>
-      <c r="T2" s="154"/>
-      <c r="U2" s="154"/>
-      <c r="V2" s="154"/>
-      <c r="W2" s="154"/>
-      <c r="X2" s="154"/>
-      <c r="Y2" s="154"/>
-      <c r="Z2" s="155"/>
-      <c r="AA2" s="126" t="s">
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="174"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="175"/>
+      <c r="R2" s="176"/>
+      <c r="S2" s="183"/>
+      <c r="T2" s="184"/>
+      <c r="U2" s="184"/>
+      <c r="V2" s="184"/>
+      <c r="W2" s="184"/>
+      <c r="X2" s="184"/>
+      <c r="Y2" s="184"/>
+      <c r="Z2" s="185"/>
+      <c r="AA2" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="127"/>
-      <c r="AC2" s="138" t="str">
+      <c r="AB2" s="157"/>
+      <c r="AC2" s="168" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="139"/>
-      <c r="AE2" s="139"/>
-      <c r="AF2" s="140"/>
-      <c r="AG2" s="135" t="str">
+      <c r="AD2" s="169"/>
+      <c r="AE2" s="169"/>
+      <c r="AF2" s="170"/>
+      <c r="AG2" s="165" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="136"/>
-      <c r="AI2" s="137"/>
+      <c r="AH2" s="166"/>
+      <c r="AI2" s="167"/>
       <c r="AJ2" s="100"/>
       <c r="AK2" s="100"/>
       <c r="AL2" s="100"/>
@@ -10856,45 +10856,45 @@
       <c r="AN2" s="100"/>
     </row>
     <row r="3" spans="1:40" s="102" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="132" t="s">
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="162" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="133"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="147"/>
-      <c r="P3" s="148"/>
-      <c r="Q3" s="148"/>
-      <c r="R3" s="149"/>
-      <c r="S3" s="156"/>
-      <c r="T3" s="157"/>
-      <c r="U3" s="157"/>
-      <c r="V3" s="157"/>
-      <c r="W3" s="157"/>
-      <c r="X3" s="157"/>
-      <c r="Y3" s="157"/>
-      <c r="Z3" s="158"/>
-      <c r="AA3" s="126"/>
-      <c r="AB3" s="127"/>
-      <c r="AC3" s="128"/>
-      <c r="AD3" s="129"/>
-      <c r="AE3" s="129"/>
-      <c r="AF3" s="130"/>
-      <c r="AG3" s="135"/>
-      <c r="AH3" s="136"/>
-      <c r="AI3" s="137"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="177"/>
+      <c r="P3" s="178"/>
+      <c r="Q3" s="178"/>
+      <c r="R3" s="179"/>
+      <c r="S3" s="186"/>
+      <c r="T3" s="187"/>
+      <c r="U3" s="187"/>
+      <c r="V3" s="187"/>
+      <c r="W3" s="187"/>
+      <c r="X3" s="187"/>
+      <c r="Y3" s="187"/>
+      <c r="Z3" s="188"/>
+      <c r="AA3" s="156"/>
+      <c r="AB3" s="157"/>
+      <c r="AC3" s="158"/>
+      <c r="AD3" s="159"/>
+      <c r="AE3" s="159"/>
+      <c r="AF3" s="160"/>
+      <c r="AG3" s="165"/>
+      <c r="AH3" s="166"/>
+      <c r="AI3" s="167"/>
       <c r="AJ3" s="100"/>
       <c r="AK3" s="100"/>
       <c r="AL3" s="100"/>
@@ -10931,1034 +10931,1195 @@
       <c r="A7" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="159" t="s">
+      <c r="B7" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="160"/>
-      <c r="D7" s="159" t="s">
+      <c r="C7" s="141"/>
+      <c r="D7" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="161"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="159" t="s">
+      <c r="E7" s="142"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="161"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="159" t="s">
+      <c r="H7" s="142"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="140" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="161"/>
-      <c r="L7" s="161"/>
-      <c r="M7" s="161"/>
-      <c r="N7" s="161"/>
-      <c r="O7" s="161"/>
-      <c r="P7" s="160"/>
-      <c r="Q7" s="159" t="s">
+      <c r="K7" s="142"/>
+      <c r="L7" s="142"/>
+      <c r="M7" s="142"/>
+      <c r="N7" s="142"/>
+      <c r="O7" s="142"/>
+      <c r="P7" s="141"/>
+      <c r="Q7" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="R7" s="161"/>
-      <c r="S7" s="161"/>
-      <c r="T7" s="161"/>
-      <c r="U7" s="161"/>
-      <c r="V7" s="161"/>
-      <c r="W7" s="161"/>
-      <c r="X7" s="161"/>
-      <c r="Y7" s="161"/>
-      <c r="Z7" s="161"/>
-      <c r="AA7" s="161"/>
-      <c r="AB7" s="161"/>
-      <c r="AC7" s="161"/>
-      <c r="AD7" s="161"/>
-      <c r="AE7" s="160"/>
-      <c r="AF7" s="159" t="s">
+      <c r="R7" s="142"/>
+      <c r="S7" s="142"/>
+      <c r="T7" s="142"/>
+      <c r="U7" s="142"/>
+      <c r="V7" s="142"/>
+      <c r="W7" s="142"/>
+      <c r="X7" s="142"/>
+      <c r="Y7" s="142"/>
+      <c r="Z7" s="142"/>
+      <c r="AA7" s="142"/>
+      <c r="AB7" s="142"/>
+      <c r="AC7" s="142"/>
+      <c r="AD7" s="142"/>
+      <c r="AE7" s="141"/>
+      <c r="AF7" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="AG7" s="161"/>
-      <c r="AH7" s="161"/>
-      <c r="AI7" s="160"/>
+      <c r="AG7" s="142"/>
+      <c r="AH7" s="142"/>
+      <c r="AI7" s="141"/>
     </row>
     <row r="8" spans="1:40" s="107" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="108">
         <v>1</v>
       </c>
-      <c r="B8" s="162" t="s">
+      <c r="B8" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="163"/>
-      <c r="D8" s="164">
+      <c r="C8" s="144"/>
+      <c r="D8" s="145">
         <v>44719</v>
       </c>
-      <c r="E8" s="165"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="167" t="s">
+      <c r="E8" s="146"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="168"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="169" t="s">
+      <c r="H8" s="149"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="150" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="170"/>
-      <c r="L8" s="170"/>
-      <c r="M8" s="170"/>
-      <c r="N8" s="170"/>
-      <c r="O8" s="170"/>
-      <c r="P8" s="171"/>
-      <c r="Q8" s="172" t="s">
+      <c r="K8" s="151"/>
+      <c r="L8" s="151"/>
+      <c r="M8" s="151"/>
+      <c r="N8" s="151"/>
+      <c r="O8" s="151"/>
+      <c r="P8" s="152"/>
+      <c r="Q8" s="153" t="s">
         <v>33</v>
       </c>
-      <c r="R8" s="173"/>
-      <c r="S8" s="173"/>
-      <c r="T8" s="173"/>
-      <c r="U8" s="173"/>
-      <c r="V8" s="173"/>
-      <c r="W8" s="173"/>
-      <c r="X8" s="173"/>
-      <c r="Y8" s="173"/>
-      <c r="Z8" s="173"/>
-      <c r="AA8" s="173"/>
-      <c r="AB8" s="173"/>
-      <c r="AC8" s="173"/>
-      <c r="AD8" s="173"/>
-      <c r="AE8" s="174"/>
-      <c r="AF8" s="169" t="s">
+      <c r="R8" s="154"/>
+      <c r="S8" s="154"/>
+      <c r="T8" s="154"/>
+      <c r="U8" s="154"/>
+      <c r="V8" s="154"/>
+      <c r="W8" s="154"/>
+      <c r="X8" s="154"/>
+      <c r="Y8" s="154"/>
+      <c r="Z8" s="154"/>
+      <c r="AA8" s="154"/>
+      <c r="AB8" s="154"/>
+      <c r="AC8" s="154"/>
+      <c r="AD8" s="154"/>
+      <c r="AE8" s="155"/>
+      <c r="AF8" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="AG8" s="170"/>
-      <c r="AH8" s="170"/>
-      <c r="AI8" s="171"/>
+      <c r="AG8" s="151"/>
+      <c r="AH8" s="151"/>
+      <c r="AI8" s="152"/>
     </row>
     <row r="9" spans="1:40" s="107" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="109"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="176"/>
-      <c r="D9" s="177"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="179"/>
-      <c r="G9" s="177"/>
-      <c r="H9" s="180"/>
-      <c r="I9" s="176"/>
-      <c r="J9" s="181"/>
-      <c r="K9" s="182"/>
-      <c r="L9" s="182"/>
-      <c r="M9" s="182"/>
-      <c r="N9" s="182"/>
-      <c r="O9" s="182"/>
-      <c r="P9" s="183"/>
-      <c r="Q9" s="184"/>
-      <c r="R9" s="185"/>
-      <c r="S9" s="185"/>
-      <c r="T9" s="185"/>
-      <c r="U9" s="185"/>
-      <c r="V9" s="185"/>
-      <c r="W9" s="185"/>
-      <c r="X9" s="185"/>
-      <c r="Y9" s="185"/>
-      <c r="Z9" s="185"/>
-      <c r="AA9" s="185"/>
-      <c r="AB9" s="185"/>
-      <c r="AC9" s="185"/>
-      <c r="AD9" s="185"/>
-      <c r="AE9" s="186"/>
-      <c r="AF9" s="181"/>
-      <c r="AG9" s="182"/>
-      <c r="AH9" s="182"/>
-      <c r="AI9" s="183"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="134"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="134"/>
+      <c r="N9" s="134"/>
+      <c r="O9" s="134"/>
+      <c r="P9" s="135"/>
+      <c r="Q9" s="136"/>
+      <c r="R9" s="137"/>
+      <c r="S9" s="137"/>
+      <c r="T9" s="137"/>
+      <c r="U9" s="137"/>
+      <c r="V9" s="137"/>
+      <c r="W9" s="137"/>
+      <c r="X9" s="137"/>
+      <c r="Y9" s="137"/>
+      <c r="Z9" s="137"/>
+      <c r="AA9" s="137"/>
+      <c r="AB9" s="137"/>
+      <c r="AC9" s="137"/>
+      <c r="AD9" s="137"/>
+      <c r="AE9" s="138"/>
+      <c r="AF9" s="133"/>
+      <c r="AG9" s="134"/>
+      <c r="AH9" s="134"/>
+      <c r="AI9" s="135"/>
     </row>
     <row r="10" spans="1:40" s="107" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="109"/>
-      <c r="B10" s="175"/>
-      <c r="C10" s="176"/>
-      <c r="D10" s="177"/>
-      <c r="E10" s="178"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="176"/>
-      <c r="J10" s="181"/>
-      <c r="K10" s="182"/>
-      <c r="L10" s="182"/>
-      <c r="M10" s="182"/>
-      <c r="N10" s="182"/>
-      <c r="O10" s="182"/>
-      <c r="P10" s="183"/>
-      <c r="Q10" s="184"/>
-      <c r="R10" s="185"/>
-      <c r="S10" s="185"/>
-      <c r="T10" s="185"/>
-      <c r="U10" s="185"/>
-      <c r="V10" s="185"/>
-      <c r="W10" s="185"/>
-      <c r="X10" s="185"/>
-      <c r="Y10" s="185"/>
-      <c r="Z10" s="185"/>
-      <c r="AA10" s="185"/>
-      <c r="AB10" s="185"/>
-      <c r="AC10" s="185"/>
-      <c r="AD10" s="185"/>
-      <c r="AE10" s="186"/>
-      <c r="AF10" s="181"/>
-      <c r="AG10" s="182"/>
-      <c r="AH10" s="182"/>
-      <c r="AI10" s="183"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="133"/>
+      <c r="K10" s="134"/>
+      <c r="L10" s="134"/>
+      <c r="M10" s="134"/>
+      <c r="N10" s="134"/>
+      <c r="O10" s="134"/>
+      <c r="P10" s="135"/>
+      <c r="Q10" s="136"/>
+      <c r="R10" s="137"/>
+      <c r="S10" s="137"/>
+      <c r="T10" s="137"/>
+      <c r="U10" s="137"/>
+      <c r="V10" s="137"/>
+      <c r="W10" s="137"/>
+      <c r="X10" s="137"/>
+      <c r="Y10" s="137"/>
+      <c r="Z10" s="137"/>
+      <c r="AA10" s="137"/>
+      <c r="AB10" s="137"/>
+      <c r="AC10" s="137"/>
+      <c r="AD10" s="137"/>
+      <c r="AE10" s="138"/>
+      <c r="AF10" s="133"/>
+      <c r="AG10" s="134"/>
+      <c r="AH10" s="134"/>
+      <c r="AI10" s="135"/>
     </row>
     <row r="11" spans="1:40" s="107" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="109"/>
-      <c r="B11" s="175"/>
-      <c r="C11" s="176"/>
-      <c r="D11" s="177"/>
-      <c r="E11" s="178"/>
-      <c r="F11" s="179"/>
-      <c r="G11" s="175"/>
-      <c r="H11" s="180"/>
-      <c r="I11" s="176"/>
-      <c r="J11" s="181"/>
-      <c r="K11" s="182"/>
-      <c r="L11" s="182"/>
-      <c r="M11" s="182"/>
-      <c r="N11" s="182"/>
-      <c r="O11" s="182"/>
-      <c r="P11" s="183"/>
-      <c r="Q11" s="184"/>
-      <c r="R11" s="185"/>
-      <c r="S11" s="185"/>
-      <c r="T11" s="185"/>
-      <c r="U11" s="185"/>
-      <c r="V11" s="185"/>
-      <c r="W11" s="185"/>
-      <c r="X11" s="185"/>
-      <c r="Y11" s="185"/>
-      <c r="Z11" s="185"/>
-      <c r="AA11" s="185"/>
-      <c r="AB11" s="185"/>
-      <c r="AC11" s="185"/>
-      <c r="AD11" s="185"/>
-      <c r="AE11" s="186"/>
-      <c r="AF11" s="181"/>
-      <c r="AG11" s="182"/>
-      <c r="AH11" s="182"/>
-      <c r="AI11" s="183"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="134"/>
+      <c r="L11" s="134"/>
+      <c r="M11" s="134"/>
+      <c r="N11" s="134"/>
+      <c r="O11" s="134"/>
+      <c r="P11" s="135"/>
+      <c r="Q11" s="136"/>
+      <c r="R11" s="137"/>
+      <c r="S11" s="137"/>
+      <c r="T11" s="137"/>
+      <c r="U11" s="137"/>
+      <c r="V11" s="137"/>
+      <c r="W11" s="137"/>
+      <c r="X11" s="137"/>
+      <c r="Y11" s="137"/>
+      <c r="Z11" s="137"/>
+      <c r="AA11" s="137"/>
+      <c r="AB11" s="137"/>
+      <c r="AC11" s="137"/>
+      <c r="AD11" s="137"/>
+      <c r="AE11" s="138"/>
+      <c r="AF11" s="133"/>
+      <c r="AG11" s="134"/>
+      <c r="AH11" s="134"/>
+      <c r="AI11" s="135"/>
     </row>
     <row r="12" spans="1:40" s="107" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="109"/>
-      <c r="B12" s="175"/>
-      <c r="C12" s="176"/>
-      <c r="D12" s="177"/>
-      <c r="E12" s="178"/>
-      <c r="F12" s="179"/>
-      <c r="G12" s="175"/>
-      <c r="H12" s="180"/>
-      <c r="I12" s="176"/>
-      <c r="J12" s="181"/>
-      <c r="K12" s="182"/>
-      <c r="L12" s="182"/>
-      <c r="M12" s="182"/>
-      <c r="N12" s="182"/>
-      <c r="O12" s="182"/>
-      <c r="P12" s="183"/>
-      <c r="Q12" s="184"/>
-      <c r="R12" s="185"/>
-      <c r="S12" s="185"/>
-      <c r="T12" s="185"/>
-      <c r="U12" s="185"/>
-      <c r="V12" s="185"/>
-      <c r="W12" s="185"/>
-      <c r="X12" s="185"/>
-      <c r="Y12" s="185"/>
-      <c r="Z12" s="185"/>
-      <c r="AA12" s="185"/>
-      <c r="AB12" s="185"/>
-      <c r="AC12" s="185"/>
-      <c r="AD12" s="185"/>
-      <c r="AE12" s="186"/>
-      <c r="AF12" s="181"/>
-      <c r="AG12" s="182"/>
-      <c r="AH12" s="182"/>
-      <c r="AI12" s="183"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="134"/>
+      <c r="O12" s="134"/>
+      <c r="P12" s="135"/>
+      <c r="Q12" s="136"/>
+      <c r="R12" s="137"/>
+      <c r="S12" s="137"/>
+      <c r="T12" s="137"/>
+      <c r="U12" s="137"/>
+      <c r="V12" s="137"/>
+      <c r="W12" s="137"/>
+      <c r="X12" s="137"/>
+      <c r="Y12" s="137"/>
+      <c r="Z12" s="137"/>
+      <c r="AA12" s="137"/>
+      <c r="AB12" s="137"/>
+      <c r="AC12" s="137"/>
+      <c r="AD12" s="137"/>
+      <c r="AE12" s="138"/>
+      <c r="AF12" s="133"/>
+      <c r="AG12" s="134"/>
+      <c r="AH12" s="134"/>
+      <c r="AI12" s="135"/>
     </row>
     <row r="13" spans="1:40" s="107" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="109"/>
-      <c r="B13" s="175"/>
-      <c r="C13" s="176"/>
-      <c r="D13" s="177"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="179"/>
-      <c r="G13" s="175"/>
-      <c r="H13" s="180"/>
-      <c r="I13" s="176"/>
-      <c r="J13" s="181"/>
-      <c r="K13" s="182"/>
-      <c r="L13" s="182"/>
-      <c r="M13" s="182"/>
-      <c r="N13" s="182"/>
-      <c r="O13" s="182"/>
-      <c r="P13" s="183"/>
-      <c r="Q13" s="184"/>
-      <c r="R13" s="185"/>
-      <c r="S13" s="185"/>
-      <c r="T13" s="185"/>
-      <c r="U13" s="185"/>
-      <c r="V13" s="185"/>
-      <c r="W13" s="185"/>
-      <c r="X13" s="185"/>
-      <c r="Y13" s="185"/>
-      <c r="Z13" s="185"/>
-      <c r="AA13" s="185"/>
-      <c r="AB13" s="185"/>
-      <c r="AC13" s="185"/>
-      <c r="AD13" s="185"/>
-      <c r="AE13" s="186"/>
-      <c r="AF13" s="181"/>
-      <c r="AG13" s="182"/>
-      <c r="AH13" s="182"/>
-      <c r="AI13" s="183"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="134"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="134"/>
+      <c r="N13" s="134"/>
+      <c r="O13" s="134"/>
+      <c r="P13" s="135"/>
+      <c r="Q13" s="136"/>
+      <c r="R13" s="137"/>
+      <c r="S13" s="137"/>
+      <c r="T13" s="137"/>
+      <c r="U13" s="137"/>
+      <c r="V13" s="137"/>
+      <c r="W13" s="137"/>
+      <c r="X13" s="137"/>
+      <c r="Y13" s="137"/>
+      <c r="Z13" s="137"/>
+      <c r="AA13" s="137"/>
+      <c r="AB13" s="137"/>
+      <c r="AC13" s="137"/>
+      <c r="AD13" s="137"/>
+      <c r="AE13" s="138"/>
+      <c r="AF13" s="133"/>
+      <c r="AG13" s="134"/>
+      <c r="AH13" s="134"/>
+      <c r="AI13" s="135"/>
     </row>
     <row r="14" spans="1:40" s="107" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="109"/>
-      <c r="B14" s="175"/>
-      <c r="C14" s="176"/>
-      <c r="D14" s="177"/>
-      <c r="E14" s="178"/>
-      <c r="F14" s="179"/>
-      <c r="G14" s="175"/>
-      <c r="H14" s="180"/>
-      <c r="I14" s="176"/>
-      <c r="J14" s="181"/>
-      <c r="K14" s="182"/>
-      <c r="L14" s="182"/>
-      <c r="M14" s="182"/>
-      <c r="N14" s="182"/>
-      <c r="O14" s="182"/>
-      <c r="P14" s="183"/>
-      <c r="Q14" s="184"/>
-      <c r="R14" s="185"/>
-      <c r="S14" s="185"/>
-      <c r="T14" s="185"/>
-      <c r="U14" s="185"/>
-      <c r="V14" s="185"/>
-      <c r="W14" s="185"/>
-      <c r="X14" s="185"/>
-      <c r="Y14" s="185"/>
-      <c r="Z14" s="185"/>
-      <c r="AA14" s="185"/>
-      <c r="AB14" s="185"/>
-      <c r="AC14" s="185"/>
-      <c r="AD14" s="185"/>
-      <c r="AE14" s="186"/>
-      <c r="AF14" s="181"/>
-      <c r="AG14" s="182"/>
-      <c r="AH14" s="182"/>
-      <c r="AI14" s="183"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="134"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="134"/>
+      <c r="N14" s="134"/>
+      <c r="O14" s="134"/>
+      <c r="P14" s="135"/>
+      <c r="Q14" s="136"/>
+      <c r="R14" s="137"/>
+      <c r="S14" s="137"/>
+      <c r="T14" s="137"/>
+      <c r="U14" s="137"/>
+      <c r="V14" s="137"/>
+      <c r="W14" s="137"/>
+      <c r="X14" s="137"/>
+      <c r="Y14" s="137"/>
+      <c r="Z14" s="137"/>
+      <c r="AA14" s="137"/>
+      <c r="AB14" s="137"/>
+      <c r="AC14" s="137"/>
+      <c r="AD14" s="137"/>
+      <c r="AE14" s="138"/>
+      <c r="AF14" s="133"/>
+      <c r="AG14" s="134"/>
+      <c r="AH14" s="134"/>
+      <c r="AI14" s="135"/>
     </row>
     <row r="15" spans="1:40" s="107" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="109"/>
-      <c r="B15" s="175"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="177"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="176"/>
-      <c r="J15" s="181"/>
-      <c r="K15" s="182"/>
-      <c r="L15" s="182"/>
-      <c r="M15" s="182"/>
-      <c r="N15" s="182"/>
-      <c r="O15" s="182"/>
-      <c r="P15" s="183"/>
-      <c r="Q15" s="184"/>
-      <c r="R15" s="185"/>
-      <c r="S15" s="185"/>
-      <c r="T15" s="185"/>
-      <c r="U15" s="185"/>
-      <c r="V15" s="185"/>
-      <c r="W15" s="185"/>
-      <c r="X15" s="185"/>
-      <c r="Y15" s="185"/>
-      <c r="Z15" s="185"/>
-      <c r="AA15" s="185"/>
-      <c r="AB15" s="185"/>
-      <c r="AC15" s="185"/>
-      <c r="AD15" s="185"/>
-      <c r="AE15" s="186"/>
-      <c r="AF15" s="181"/>
-      <c r="AG15" s="182"/>
-      <c r="AH15" s="182"/>
-      <c r="AI15" s="183"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="134"/>
+      <c r="O15" s="134"/>
+      <c r="P15" s="135"/>
+      <c r="Q15" s="136"/>
+      <c r="R15" s="137"/>
+      <c r="S15" s="137"/>
+      <c r="T15" s="137"/>
+      <c r="U15" s="137"/>
+      <c r="V15" s="137"/>
+      <c r="W15" s="137"/>
+      <c r="X15" s="137"/>
+      <c r="Y15" s="137"/>
+      <c r="Z15" s="137"/>
+      <c r="AA15" s="137"/>
+      <c r="AB15" s="137"/>
+      <c r="AC15" s="137"/>
+      <c r="AD15" s="137"/>
+      <c r="AE15" s="138"/>
+      <c r="AF15" s="133"/>
+      <c r="AG15" s="134"/>
+      <c r="AH15" s="134"/>
+      <c r="AI15" s="135"/>
     </row>
     <row r="16" spans="1:40" s="107" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="109"/>
-      <c r="B16" s="175"/>
-      <c r="C16" s="176"/>
-      <c r="D16" s="177"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="175"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="176"/>
-      <c r="J16" s="181"/>
-      <c r="K16" s="182"/>
-      <c r="L16" s="182"/>
-      <c r="M16" s="182"/>
-      <c r="N16" s="182"/>
-      <c r="O16" s="182"/>
-      <c r="P16" s="183"/>
-      <c r="Q16" s="184"/>
-      <c r="R16" s="185"/>
-      <c r="S16" s="185"/>
-      <c r="T16" s="185"/>
-      <c r="U16" s="185"/>
-      <c r="V16" s="185"/>
-      <c r="W16" s="185"/>
-      <c r="X16" s="185"/>
-      <c r="Y16" s="185"/>
-      <c r="Z16" s="185"/>
-      <c r="AA16" s="185"/>
-      <c r="AB16" s="185"/>
-      <c r="AC16" s="185"/>
-      <c r="AD16" s="185"/>
-      <c r="AE16" s="186"/>
-      <c r="AF16" s="181"/>
-      <c r="AG16" s="182"/>
-      <c r="AH16" s="182"/>
-      <c r="AI16" s="183"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="134"/>
+      <c r="N16" s="134"/>
+      <c r="O16" s="134"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="136"/>
+      <c r="R16" s="137"/>
+      <c r="S16" s="137"/>
+      <c r="T16" s="137"/>
+      <c r="U16" s="137"/>
+      <c r="V16" s="137"/>
+      <c r="W16" s="137"/>
+      <c r="X16" s="137"/>
+      <c r="Y16" s="137"/>
+      <c r="Z16" s="137"/>
+      <c r="AA16" s="137"/>
+      <c r="AB16" s="137"/>
+      <c r="AC16" s="137"/>
+      <c r="AD16" s="137"/>
+      <c r="AE16" s="138"/>
+      <c r="AF16" s="133"/>
+      <c r="AG16" s="134"/>
+      <c r="AH16" s="134"/>
+      <c r="AI16" s="135"/>
     </row>
     <row r="17" spans="1:35" s="107" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="109"/>
-      <c r="B17" s="175"/>
-      <c r="C17" s="176"/>
-      <c r="D17" s="177"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="175"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="176"/>
-      <c r="J17" s="181"/>
-      <c r="K17" s="182"/>
-      <c r="L17" s="182"/>
-      <c r="M17" s="182"/>
-      <c r="N17" s="182"/>
-      <c r="O17" s="182"/>
-      <c r="P17" s="183"/>
-      <c r="Q17" s="184"/>
-      <c r="R17" s="185"/>
-      <c r="S17" s="185"/>
-      <c r="T17" s="185"/>
-      <c r="U17" s="185"/>
-      <c r="V17" s="185"/>
-      <c r="W17" s="185"/>
-      <c r="X17" s="185"/>
-      <c r="Y17" s="185"/>
-      <c r="Z17" s="185"/>
-      <c r="AA17" s="185"/>
-      <c r="AB17" s="185"/>
-      <c r="AC17" s="185"/>
-      <c r="AD17" s="185"/>
-      <c r="AE17" s="186"/>
-      <c r="AF17" s="181"/>
-      <c r="AG17" s="182"/>
-      <c r="AH17" s="182"/>
-      <c r="AI17" s="183"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="133"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="134"/>
+      <c r="O17" s="134"/>
+      <c r="P17" s="135"/>
+      <c r="Q17" s="136"/>
+      <c r="R17" s="137"/>
+      <c r="S17" s="137"/>
+      <c r="T17" s="137"/>
+      <c r="U17" s="137"/>
+      <c r="V17" s="137"/>
+      <c r="W17" s="137"/>
+      <c r="X17" s="137"/>
+      <c r="Y17" s="137"/>
+      <c r="Z17" s="137"/>
+      <c r="AA17" s="137"/>
+      <c r="AB17" s="137"/>
+      <c r="AC17" s="137"/>
+      <c r="AD17" s="137"/>
+      <c r="AE17" s="138"/>
+      <c r="AF17" s="133"/>
+      <c r="AG17" s="134"/>
+      <c r="AH17" s="134"/>
+      <c r="AI17" s="135"/>
     </row>
     <row r="18" spans="1:35" s="107" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="109"/>
-      <c r="B18" s="175"/>
-      <c r="C18" s="176"/>
-      <c r="D18" s="177"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="175"/>
-      <c r="H18" s="180"/>
-      <c r="I18" s="176"/>
-      <c r="J18" s="181"/>
-      <c r="K18" s="182"/>
-      <c r="L18" s="182"/>
-      <c r="M18" s="182"/>
-      <c r="N18" s="182"/>
-      <c r="O18" s="182"/>
-      <c r="P18" s="183"/>
-      <c r="Q18" s="184"/>
-      <c r="R18" s="185"/>
-      <c r="S18" s="185"/>
-      <c r="T18" s="185"/>
-      <c r="U18" s="185"/>
-      <c r="V18" s="185"/>
-      <c r="W18" s="185"/>
-      <c r="X18" s="185"/>
-      <c r="Y18" s="185"/>
-      <c r="Z18" s="185"/>
-      <c r="AA18" s="185"/>
-      <c r="AB18" s="185"/>
-      <c r="AC18" s="185"/>
-      <c r="AD18" s="185"/>
-      <c r="AE18" s="186"/>
-      <c r="AF18" s="181"/>
-      <c r="AG18" s="182"/>
-      <c r="AH18" s="182"/>
-      <c r="AI18" s="183"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="133"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="134"/>
+      <c r="N18" s="134"/>
+      <c r="O18" s="134"/>
+      <c r="P18" s="135"/>
+      <c r="Q18" s="136"/>
+      <c r="R18" s="137"/>
+      <c r="S18" s="137"/>
+      <c r="T18" s="137"/>
+      <c r="U18" s="137"/>
+      <c r="V18" s="137"/>
+      <c r="W18" s="137"/>
+      <c r="X18" s="137"/>
+      <c r="Y18" s="137"/>
+      <c r="Z18" s="137"/>
+      <c r="AA18" s="137"/>
+      <c r="AB18" s="137"/>
+      <c r="AC18" s="137"/>
+      <c r="AD18" s="137"/>
+      <c r="AE18" s="138"/>
+      <c r="AF18" s="133"/>
+      <c r="AG18" s="134"/>
+      <c r="AH18" s="134"/>
+      <c r="AI18" s="135"/>
     </row>
     <row r="19" spans="1:35" s="107" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="109"/>
-      <c r="B19" s="175"/>
-      <c r="C19" s="176"/>
-      <c r="D19" s="177"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="175"/>
-      <c r="H19" s="180"/>
-      <c r="I19" s="176"/>
-      <c r="J19" s="181"/>
-      <c r="K19" s="182"/>
-      <c r="L19" s="182"/>
-      <c r="M19" s="182"/>
-      <c r="N19" s="182"/>
-      <c r="O19" s="182"/>
-      <c r="P19" s="183"/>
-      <c r="Q19" s="184"/>
-      <c r="R19" s="185"/>
-      <c r="S19" s="185"/>
-      <c r="T19" s="185"/>
-      <c r="U19" s="185"/>
-      <c r="V19" s="185"/>
-      <c r="W19" s="185"/>
-      <c r="X19" s="185"/>
-      <c r="Y19" s="185"/>
-      <c r="Z19" s="185"/>
-      <c r="AA19" s="185"/>
-      <c r="AB19" s="185"/>
-      <c r="AC19" s="185"/>
-      <c r="AD19" s="185"/>
-      <c r="AE19" s="186"/>
-      <c r="AF19" s="181"/>
-      <c r="AG19" s="182"/>
-      <c r="AH19" s="182"/>
-      <c r="AI19" s="183"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="127"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="133"/>
+      <c r="K19" s="134"/>
+      <c r="L19" s="134"/>
+      <c r="M19" s="134"/>
+      <c r="N19" s="134"/>
+      <c r="O19" s="134"/>
+      <c r="P19" s="135"/>
+      <c r="Q19" s="136"/>
+      <c r="R19" s="137"/>
+      <c r="S19" s="137"/>
+      <c r="T19" s="137"/>
+      <c r="U19" s="137"/>
+      <c r="V19" s="137"/>
+      <c r="W19" s="137"/>
+      <c r="X19" s="137"/>
+      <c r="Y19" s="137"/>
+      <c r="Z19" s="137"/>
+      <c r="AA19" s="137"/>
+      <c r="AB19" s="137"/>
+      <c r="AC19" s="137"/>
+      <c r="AD19" s="137"/>
+      <c r="AE19" s="138"/>
+      <c r="AF19" s="133"/>
+      <c r="AG19" s="134"/>
+      <c r="AH19" s="134"/>
+      <c r="AI19" s="135"/>
     </row>
     <row r="20" spans="1:35" s="107" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="109"/>
-      <c r="B20" s="175"/>
-      <c r="C20" s="176"/>
-      <c r="D20" s="177"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="179"/>
-      <c r="G20" s="175"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="176"/>
-      <c r="J20" s="181"/>
-      <c r="K20" s="182"/>
-      <c r="L20" s="182"/>
-      <c r="M20" s="182"/>
-      <c r="N20" s="182"/>
-      <c r="O20" s="182"/>
-      <c r="P20" s="183"/>
-      <c r="Q20" s="184"/>
-      <c r="R20" s="185"/>
-      <c r="S20" s="185"/>
-      <c r="T20" s="185"/>
-      <c r="U20" s="185"/>
-      <c r="V20" s="185"/>
-      <c r="W20" s="185"/>
-      <c r="X20" s="185"/>
-      <c r="Y20" s="185"/>
-      <c r="Z20" s="185"/>
-      <c r="AA20" s="185"/>
-      <c r="AB20" s="185"/>
-      <c r="AC20" s="185"/>
-      <c r="AD20" s="185"/>
-      <c r="AE20" s="186"/>
-      <c r="AF20" s="181"/>
-      <c r="AG20" s="182"/>
-      <c r="AH20" s="182"/>
-      <c r="AI20" s="183"/>
+      <c r="B20" s="127"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="134"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="134"/>
+      <c r="N20" s="134"/>
+      <c r="O20" s="134"/>
+      <c r="P20" s="135"/>
+      <c r="Q20" s="136"/>
+      <c r="R20" s="137"/>
+      <c r="S20" s="137"/>
+      <c r="T20" s="137"/>
+      <c r="U20" s="137"/>
+      <c r="V20" s="137"/>
+      <c r="W20" s="137"/>
+      <c r="X20" s="137"/>
+      <c r="Y20" s="137"/>
+      <c r="Z20" s="137"/>
+      <c r="AA20" s="137"/>
+      <c r="AB20" s="137"/>
+      <c r="AC20" s="137"/>
+      <c r="AD20" s="137"/>
+      <c r="AE20" s="138"/>
+      <c r="AF20" s="133"/>
+      <c r="AG20" s="134"/>
+      <c r="AH20" s="134"/>
+      <c r="AI20" s="135"/>
     </row>
     <row r="21" spans="1:35" s="107" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="109"/>
-      <c r="B21" s="175"/>
-      <c r="C21" s="176"/>
-      <c r="D21" s="177"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="179"/>
-      <c r="G21" s="175"/>
-      <c r="H21" s="180"/>
-      <c r="I21" s="176"/>
-      <c r="J21" s="181"/>
-      <c r="K21" s="182"/>
-      <c r="L21" s="182"/>
-      <c r="M21" s="182"/>
-      <c r="N21" s="182"/>
-      <c r="O21" s="182"/>
-      <c r="P21" s="183"/>
-      <c r="Q21" s="184"/>
-      <c r="R21" s="185"/>
-      <c r="S21" s="185"/>
-      <c r="T21" s="185"/>
-      <c r="U21" s="185"/>
-      <c r="V21" s="185"/>
-      <c r="W21" s="185"/>
-      <c r="X21" s="185"/>
-      <c r="Y21" s="185"/>
-      <c r="Z21" s="185"/>
-      <c r="AA21" s="185"/>
-      <c r="AB21" s="185"/>
-      <c r="AC21" s="185"/>
-      <c r="AD21" s="185"/>
-      <c r="AE21" s="186"/>
-      <c r="AF21" s="181"/>
-      <c r="AG21" s="182"/>
-      <c r="AH21" s="182"/>
-      <c r="AI21" s="183"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="131"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="128"/>
+      <c r="J21" s="133"/>
+      <c r="K21" s="134"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="134"/>
+      <c r="N21" s="134"/>
+      <c r="O21" s="134"/>
+      <c r="P21" s="135"/>
+      <c r="Q21" s="136"/>
+      <c r="R21" s="137"/>
+      <c r="S21" s="137"/>
+      <c r="T21" s="137"/>
+      <c r="U21" s="137"/>
+      <c r="V21" s="137"/>
+      <c r="W21" s="137"/>
+      <c r="X21" s="137"/>
+      <c r="Y21" s="137"/>
+      <c r="Z21" s="137"/>
+      <c r="AA21" s="137"/>
+      <c r="AB21" s="137"/>
+      <c r="AC21" s="137"/>
+      <c r="AD21" s="137"/>
+      <c r="AE21" s="138"/>
+      <c r="AF21" s="133"/>
+      <c r="AG21" s="134"/>
+      <c r="AH21" s="134"/>
+      <c r="AI21" s="135"/>
     </row>
     <row r="22" spans="1:35" s="107" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="109"/>
-      <c r="B22" s="175"/>
-      <c r="C22" s="176"/>
-      <c r="D22" s="177"/>
-      <c r="E22" s="178"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="175"/>
-      <c r="H22" s="180"/>
-      <c r="I22" s="176"/>
-      <c r="J22" s="181"/>
-      <c r="K22" s="182"/>
-      <c r="L22" s="182"/>
-      <c r="M22" s="182"/>
-      <c r="N22" s="182"/>
-      <c r="O22" s="182"/>
-      <c r="P22" s="183"/>
-      <c r="Q22" s="184"/>
-      <c r="R22" s="185"/>
-      <c r="S22" s="185"/>
-      <c r="T22" s="185"/>
-      <c r="U22" s="185"/>
-      <c r="V22" s="185"/>
-      <c r="W22" s="185"/>
-      <c r="X22" s="185"/>
-      <c r="Y22" s="185"/>
-      <c r="Z22" s="185"/>
-      <c r="AA22" s="185"/>
-      <c r="AB22" s="185"/>
-      <c r="AC22" s="185"/>
-      <c r="AD22" s="185"/>
-      <c r="AE22" s="186"/>
-      <c r="AF22" s="181"/>
-      <c r="AG22" s="182"/>
-      <c r="AH22" s="182"/>
-      <c r="AI22" s="183"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="133"/>
+      <c r="K22" s="134"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="134"/>
+      <c r="N22" s="134"/>
+      <c r="O22" s="134"/>
+      <c r="P22" s="135"/>
+      <c r="Q22" s="136"/>
+      <c r="R22" s="137"/>
+      <c r="S22" s="137"/>
+      <c r="T22" s="137"/>
+      <c r="U22" s="137"/>
+      <c r="V22" s="137"/>
+      <c r="W22" s="137"/>
+      <c r="X22" s="137"/>
+      <c r="Y22" s="137"/>
+      <c r="Z22" s="137"/>
+      <c r="AA22" s="137"/>
+      <c r="AB22" s="137"/>
+      <c r="AC22" s="137"/>
+      <c r="AD22" s="137"/>
+      <c r="AE22" s="138"/>
+      <c r="AF22" s="133"/>
+      <c r="AG22" s="134"/>
+      <c r="AH22" s="134"/>
+      <c r="AI22" s="135"/>
     </row>
     <row r="23" spans="1:35" s="107" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="109"/>
-      <c r="B23" s="175"/>
-      <c r="C23" s="176"/>
-      <c r="D23" s="177"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="179"/>
-      <c r="G23" s="175"/>
-      <c r="H23" s="180"/>
-      <c r="I23" s="176"/>
-      <c r="J23" s="181"/>
-      <c r="K23" s="182"/>
-      <c r="L23" s="182"/>
-      <c r="M23" s="182"/>
-      <c r="N23" s="182"/>
-      <c r="O23" s="182"/>
-      <c r="P23" s="183"/>
-      <c r="Q23" s="184"/>
-      <c r="R23" s="185"/>
-      <c r="S23" s="185"/>
-      <c r="T23" s="185"/>
-      <c r="U23" s="185"/>
-      <c r="V23" s="185"/>
-      <c r="W23" s="185"/>
-      <c r="X23" s="185"/>
-      <c r="Y23" s="185"/>
-      <c r="Z23" s="185"/>
-      <c r="AA23" s="185"/>
-      <c r="AB23" s="185"/>
-      <c r="AC23" s="185"/>
-      <c r="AD23" s="185"/>
-      <c r="AE23" s="186"/>
-      <c r="AF23" s="181"/>
-      <c r="AG23" s="182"/>
-      <c r="AH23" s="182"/>
-      <c r="AI23" s="183"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="128"/>
+      <c r="J23" s="133"/>
+      <c r="K23" s="134"/>
+      <c r="L23" s="134"/>
+      <c r="M23" s="134"/>
+      <c r="N23" s="134"/>
+      <c r="O23" s="134"/>
+      <c r="P23" s="135"/>
+      <c r="Q23" s="136"/>
+      <c r="R23" s="137"/>
+      <c r="S23" s="137"/>
+      <c r="T23" s="137"/>
+      <c r="U23" s="137"/>
+      <c r="V23" s="137"/>
+      <c r="W23" s="137"/>
+      <c r="X23" s="137"/>
+      <c r="Y23" s="137"/>
+      <c r="Z23" s="137"/>
+      <c r="AA23" s="137"/>
+      <c r="AB23" s="137"/>
+      <c r="AC23" s="137"/>
+      <c r="AD23" s="137"/>
+      <c r="AE23" s="138"/>
+      <c r="AF23" s="133"/>
+      <c r="AG23" s="134"/>
+      <c r="AH23" s="134"/>
+      <c r="AI23" s="135"/>
     </row>
     <row r="24" spans="1:35" s="107" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="109"/>
-      <c r="B24" s="175"/>
-      <c r="C24" s="176"/>
-      <c r="D24" s="177"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="179"/>
-      <c r="G24" s="175"/>
-      <c r="H24" s="180"/>
-      <c r="I24" s="176"/>
-      <c r="J24" s="181"/>
-      <c r="K24" s="182"/>
-      <c r="L24" s="182"/>
-      <c r="M24" s="182"/>
-      <c r="N24" s="182"/>
-      <c r="O24" s="182"/>
-      <c r="P24" s="183"/>
-      <c r="Q24" s="184"/>
-      <c r="R24" s="185"/>
-      <c r="S24" s="185"/>
-      <c r="T24" s="185"/>
-      <c r="U24" s="185"/>
-      <c r="V24" s="185"/>
-      <c r="W24" s="185"/>
-      <c r="X24" s="185"/>
-      <c r="Y24" s="185"/>
-      <c r="Z24" s="185"/>
-      <c r="AA24" s="185"/>
-      <c r="AB24" s="185"/>
-      <c r="AC24" s="185"/>
-      <c r="AD24" s="185"/>
-      <c r="AE24" s="186"/>
-      <c r="AF24" s="181"/>
-      <c r="AG24" s="182"/>
-      <c r="AH24" s="182"/>
-      <c r="AI24" s="183"/>
+      <c r="B24" s="127"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="127"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="133"/>
+      <c r="K24" s="134"/>
+      <c r="L24" s="134"/>
+      <c r="M24" s="134"/>
+      <c r="N24" s="134"/>
+      <c r="O24" s="134"/>
+      <c r="P24" s="135"/>
+      <c r="Q24" s="136"/>
+      <c r="R24" s="137"/>
+      <c r="S24" s="137"/>
+      <c r="T24" s="137"/>
+      <c r="U24" s="137"/>
+      <c r="V24" s="137"/>
+      <c r="W24" s="137"/>
+      <c r="X24" s="137"/>
+      <c r="Y24" s="137"/>
+      <c r="Z24" s="137"/>
+      <c r="AA24" s="137"/>
+      <c r="AB24" s="137"/>
+      <c r="AC24" s="137"/>
+      <c r="AD24" s="137"/>
+      <c r="AE24" s="138"/>
+      <c r="AF24" s="133"/>
+      <c r="AG24" s="134"/>
+      <c r="AH24" s="134"/>
+      <c r="AI24" s="135"/>
     </row>
     <row r="25" spans="1:35" s="107" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="109"/>
-      <c r="B25" s="175"/>
-      <c r="C25" s="176"/>
-      <c r="D25" s="177"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="179"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="180"/>
-      <c r="I25" s="176"/>
-      <c r="J25" s="181"/>
-      <c r="K25" s="182"/>
-      <c r="L25" s="182"/>
-      <c r="M25" s="182"/>
-      <c r="N25" s="182"/>
-      <c r="O25" s="182"/>
-      <c r="P25" s="183"/>
-      <c r="Q25" s="184"/>
-      <c r="R25" s="185"/>
-      <c r="S25" s="185"/>
-      <c r="T25" s="185"/>
-      <c r="U25" s="185"/>
-      <c r="V25" s="185"/>
-      <c r="W25" s="185"/>
-      <c r="X25" s="185"/>
-      <c r="Y25" s="185"/>
-      <c r="Z25" s="185"/>
-      <c r="AA25" s="185"/>
-      <c r="AB25" s="185"/>
-      <c r="AC25" s="185"/>
-      <c r="AD25" s="185"/>
-      <c r="AE25" s="186"/>
-      <c r="AF25" s="181"/>
-      <c r="AG25" s="182"/>
-      <c r="AH25" s="182"/>
-      <c r="AI25" s="183"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="128"/>
+      <c r="J25" s="133"/>
+      <c r="K25" s="134"/>
+      <c r="L25" s="134"/>
+      <c r="M25" s="134"/>
+      <c r="N25" s="134"/>
+      <c r="O25" s="134"/>
+      <c r="P25" s="135"/>
+      <c r="Q25" s="136"/>
+      <c r="R25" s="137"/>
+      <c r="S25" s="137"/>
+      <c r="T25" s="137"/>
+      <c r="U25" s="137"/>
+      <c r="V25" s="137"/>
+      <c r="W25" s="137"/>
+      <c r="X25" s="137"/>
+      <c r="Y25" s="137"/>
+      <c r="Z25" s="137"/>
+      <c r="AA25" s="137"/>
+      <c r="AB25" s="137"/>
+      <c r="AC25" s="137"/>
+      <c r="AD25" s="137"/>
+      <c r="AE25" s="138"/>
+      <c r="AF25" s="133"/>
+      <c r="AG25" s="134"/>
+      <c r="AH25" s="134"/>
+      <c r="AI25" s="135"/>
     </row>
     <row r="26" spans="1:35" s="107" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="109"/>
-      <c r="B26" s="175"/>
-      <c r="C26" s="176"/>
-      <c r="D26" s="177"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="175"/>
-      <c r="H26" s="180"/>
-      <c r="I26" s="176"/>
-      <c r="J26" s="181"/>
-      <c r="K26" s="182"/>
-      <c r="L26" s="182"/>
-      <c r="M26" s="182"/>
-      <c r="N26" s="182"/>
-      <c r="O26" s="182"/>
-      <c r="P26" s="183"/>
-      <c r="Q26" s="184"/>
-      <c r="R26" s="185"/>
-      <c r="S26" s="185"/>
-      <c r="T26" s="185"/>
-      <c r="U26" s="185"/>
-      <c r="V26" s="185"/>
-      <c r="W26" s="185"/>
-      <c r="X26" s="185"/>
-      <c r="Y26" s="185"/>
-      <c r="Z26" s="185"/>
-      <c r="AA26" s="185"/>
-      <c r="AB26" s="185"/>
-      <c r="AC26" s="185"/>
-      <c r="AD26" s="185"/>
-      <c r="AE26" s="186"/>
-      <c r="AF26" s="181"/>
-      <c r="AG26" s="182"/>
-      <c r="AH26" s="182"/>
-      <c r="AI26" s="183"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="127"/>
+      <c r="H26" s="132"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="133"/>
+      <c r="K26" s="134"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="134"/>
+      <c r="N26" s="134"/>
+      <c r="O26" s="134"/>
+      <c r="P26" s="135"/>
+      <c r="Q26" s="136"/>
+      <c r="R26" s="137"/>
+      <c r="S26" s="137"/>
+      <c r="T26" s="137"/>
+      <c r="U26" s="137"/>
+      <c r="V26" s="137"/>
+      <c r="W26" s="137"/>
+      <c r="X26" s="137"/>
+      <c r="Y26" s="137"/>
+      <c r="Z26" s="137"/>
+      <c r="AA26" s="137"/>
+      <c r="AB26" s="137"/>
+      <c r="AC26" s="137"/>
+      <c r="AD26" s="137"/>
+      <c r="AE26" s="138"/>
+      <c r="AF26" s="133"/>
+      <c r="AG26" s="134"/>
+      <c r="AH26" s="134"/>
+      <c r="AI26" s="135"/>
     </row>
     <row r="27" spans="1:35" s="107" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="109"/>
-      <c r="B27" s="175"/>
-      <c r="C27" s="176"/>
-      <c r="D27" s="177"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="179"/>
-      <c r="G27" s="175"/>
-      <c r="H27" s="180"/>
-      <c r="I27" s="176"/>
-      <c r="J27" s="181"/>
-      <c r="K27" s="182"/>
-      <c r="L27" s="182"/>
-      <c r="M27" s="182"/>
-      <c r="N27" s="182"/>
-      <c r="O27" s="182"/>
-      <c r="P27" s="183"/>
-      <c r="Q27" s="184"/>
-      <c r="R27" s="185"/>
-      <c r="S27" s="185"/>
-      <c r="T27" s="185"/>
-      <c r="U27" s="185"/>
-      <c r="V27" s="185"/>
-      <c r="W27" s="185"/>
-      <c r="X27" s="185"/>
-      <c r="Y27" s="185"/>
-      <c r="Z27" s="185"/>
-      <c r="AA27" s="185"/>
-      <c r="AB27" s="185"/>
-      <c r="AC27" s="185"/>
-      <c r="AD27" s="185"/>
-      <c r="AE27" s="186"/>
-      <c r="AF27" s="181"/>
-      <c r="AG27" s="182"/>
-      <c r="AH27" s="182"/>
-      <c r="AI27" s="183"/>
+      <c r="B27" s="127"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="127"/>
+      <c r="H27" s="132"/>
+      <c r="I27" s="128"/>
+      <c r="J27" s="133"/>
+      <c r="K27" s="134"/>
+      <c r="L27" s="134"/>
+      <c r="M27" s="134"/>
+      <c r="N27" s="134"/>
+      <c r="O27" s="134"/>
+      <c r="P27" s="135"/>
+      <c r="Q27" s="136"/>
+      <c r="R27" s="137"/>
+      <c r="S27" s="137"/>
+      <c r="T27" s="137"/>
+      <c r="U27" s="137"/>
+      <c r="V27" s="137"/>
+      <c r="W27" s="137"/>
+      <c r="X27" s="137"/>
+      <c r="Y27" s="137"/>
+      <c r="Z27" s="137"/>
+      <c r="AA27" s="137"/>
+      <c r="AB27" s="137"/>
+      <c r="AC27" s="137"/>
+      <c r="AD27" s="137"/>
+      <c r="AE27" s="138"/>
+      <c r="AF27" s="133"/>
+      <c r="AG27" s="134"/>
+      <c r="AH27" s="134"/>
+      <c r="AI27" s="135"/>
     </row>
     <row r="28" spans="1:35" s="107" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="109"/>
-      <c r="B28" s="175"/>
-      <c r="C28" s="176"/>
-      <c r="D28" s="177"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="179"/>
-      <c r="G28" s="175"/>
-      <c r="H28" s="180"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="181"/>
-      <c r="K28" s="182"/>
-      <c r="L28" s="182"/>
-      <c r="M28" s="182"/>
-      <c r="N28" s="182"/>
-      <c r="O28" s="182"/>
-      <c r="P28" s="183"/>
-      <c r="Q28" s="184"/>
-      <c r="R28" s="185"/>
-      <c r="S28" s="185"/>
-      <c r="T28" s="185"/>
-      <c r="U28" s="185"/>
-      <c r="V28" s="185"/>
-      <c r="W28" s="185"/>
-      <c r="X28" s="185"/>
-      <c r="Y28" s="185"/>
-      <c r="Z28" s="185"/>
-      <c r="AA28" s="185"/>
-      <c r="AB28" s="185"/>
-      <c r="AC28" s="185"/>
-      <c r="AD28" s="185"/>
-      <c r="AE28" s="186"/>
-      <c r="AF28" s="181"/>
-      <c r="AG28" s="182"/>
-      <c r="AH28" s="182"/>
-      <c r="AI28" s="183"/>
+      <c r="B28" s="127"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="128"/>
+      <c r="J28" s="133"/>
+      <c r="K28" s="134"/>
+      <c r="L28" s="134"/>
+      <c r="M28" s="134"/>
+      <c r="N28" s="134"/>
+      <c r="O28" s="134"/>
+      <c r="P28" s="135"/>
+      <c r="Q28" s="136"/>
+      <c r="R28" s="137"/>
+      <c r="S28" s="137"/>
+      <c r="T28" s="137"/>
+      <c r="U28" s="137"/>
+      <c r="V28" s="137"/>
+      <c r="W28" s="137"/>
+      <c r="X28" s="137"/>
+      <c r="Y28" s="137"/>
+      <c r="Z28" s="137"/>
+      <c r="AA28" s="137"/>
+      <c r="AB28" s="137"/>
+      <c r="AC28" s="137"/>
+      <c r="AD28" s="137"/>
+      <c r="AE28" s="138"/>
+      <c r="AF28" s="133"/>
+      <c r="AG28" s="134"/>
+      <c r="AH28" s="134"/>
+      <c r="AI28" s="135"/>
     </row>
     <row r="29" spans="1:35" s="107" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="109"/>
-      <c r="B29" s="175"/>
-      <c r="C29" s="176"/>
-      <c r="D29" s="177"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="180"/>
-      <c r="I29" s="176"/>
-      <c r="J29" s="181"/>
-      <c r="K29" s="182"/>
-      <c r="L29" s="182"/>
-      <c r="M29" s="182"/>
-      <c r="N29" s="182"/>
-      <c r="O29" s="182"/>
-      <c r="P29" s="183"/>
-      <c r="Q29" s="184"/>
-      <c r="R29" s="185"/>
-      <c r="S29" s="185"/>
-      <c r="T29" s="185"/>
-      <c r="U29" s="185"/>
-      <c r="V29" s="185"/>
-      <c r="W29" s="185"/>
-      <c r="X29" s="185"/>
-      <c r="Y29" s="185"/>
-      <c r="Z29" s="185"/>
-      <c r="AA29" s="185"/>
-      <c r="AB29" s="185"/>
-      <c r="AC29" s="185"/>
-      <c r="AD29" s="185"/>
-      <c r="AE29" s="186"/>
-      <c r="AF29" s="181"/>
-      <c r="AG29" s="182"/>
-      <c r="AH29" s="182"/>
-      <c r="AI29" s="183"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="132"/>
+      <c r="I29" s="128"/>
+      <c r="J29" s="133"/>
+      <c r="K29" s="134"/>
+      <c r="L29" s="134"/>
+      <c r="M29" s="134"/>
+      <c r="N29" s="134"/>
+      <c r="O29" s="134"/>
+      <c r="P29" s="135"/>
+      <c r="Q29" s="136"/>
+      <c r="R29" s="137"/>
+      <c r="S29" s="137"/>
+      <c r="T29" s="137"/>
+      <c r="U29" s="137"/>
+      <c r="V29" s="137"/>
+      <c r="W29" s="137"/>
+      <c r="X29" s="137"/>
+      <c r="Y29" s="137"/>
+      <c r="Z29" s="137"/>
+      <c r="AA29" s="137"/>
+      <c r="AB29" s="137"/>
+      <c r="AC29" s="137"/>
+      <c r="AD29" s="137"/>
+      <c r="AE29" s="138"/>
+      <c r="AF29" s="133"/>
+      <c r="AG29" s="134"/>
+      <c r="AH29" s="134"/>
+      <c r="AI29" s="135"/>
     </row>
     <row r="30" spans="1:35" s="107" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="109"/>
-      <c r="B30" s="175"/>
-      <c r="C30" s="176"/>
-      <c r="D30" s="177"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="175"/>
-      <c r="H30" s="180"/>
-      <c r="I30" s="176"/>
-      <c r="J30" s="181"/>
-      <c r="K30" s="182"/>
-      <c r="L30" s="182"/>
-      <c r="M30" s="182"/>
-      <c r="N30" s="182"/>
-      <c r="O30" s="182"/>
-      <c r="P30" s="183"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="185"/>
-      <c r="S30" s="185"/>
-      <c r="T30" s="185"/>
-      <c r="U30" s="185"/>
-      <c r="V30" s="185"/>
-      <c r="W30" s="185"/>
-      <c r="X30" s="185"/>
-      <c r="Y30" s="185"/>
-      <c r="Z30" s="185"/>
-      <c r="AA30" s="185"/>
-      <c r="AB30" s="185"/>
-      <c r="AC30" s="185"/>
-      <c r="AD30" s="185"/>
-      <c r="AE30" s="186"/>
-      <c r="AF30" s="181"/>
-      <c r="AG30" s="182"/>
-      <c r="AH30" s="182"/>
-      <c r="AI30" s="183"/>
+      <c r="B30" s="127"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="131"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="132"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="133"/>
+      <c r="K30" s="134"/>
+      <c r="L30" s="134"/>
+      <c r="M30" s="134"/>
+      <c r="N30" s="134"/>
+      <c r="O30" s="134"/>
+      <c r="P30" s="135"/>
+      <c r="Q30" s="136"/>
+      <c r="R30" s="137"/>
+      <c r="S30" s="137"/>
+      <c r="T30" s="137"/>
+      <c r="U30" s="137"/>
+      <c r="V30" s="137"/>
+      <c r="W30" s="137"/>
+      <c r="X30" s="137"/>
+      <c r="Y30" s="137"/>
+      <c r="Z30" s="137"/>
+      <c r="AA30" s="137"/>
+      <c r="AB30" s="137"/>
+      <c r="AC30" s="137"/>
+      <c r="AD30" s="137"/>
+      <c r="AE30" s="138"/>
+      <c r="AF30" s="133"/>
+      <c r="AG30" s="134"/>
+      <c r="AH30" s="134"/>
+      <c r="AI30" s="135"/>
     </row>
     <row r="31" spans="1:35" s="107" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="109"/>
-      <c r="B31" s="175"/>
-      <c r="C31" s="176"/>
-      <c r="D31" s="177"/>
-      <c r="E31" s="178"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="175"/>
-      <c r="H31" s="180"/>
-      <c r="I31" s="176"/>
-      <c r="J31" s="181"/>
-      <c r="K31" s="182"/>
-      <c r="L31" s="182"/>
-      <c r="M31" s="182"/>
-      <c r="N31" s="182"/>
-      <c r="O31" s="182"/>
-      <c r="P31" s="183"/>
-      <c r="Q31" s="184"/>
-      <c r="R31" s="185"/>
-      <c r="S31" s="185"/>
-      <c r="T31" s="185"/>
-      <c r="U31" s="185"/>
-      <c r="V31" s="185"/>
-      <c r="W31" s="185"/>
-      <c r="X31" s="185"/>
-      <c r="Y31" s="185"/>
-      <c r="Z31" s="185"/>
-      <c r="AA31" s="185"/>
-      <c r="AB31" s="185"/>
-      <c r="AC31" s="185"/>
-      <c r="AD31" s="185"/>
-      <c r="AE31" s="186"/>
-      <c r="AF31" s="181"/>
-      <c r="AG31" s="182"/>
-      <c r="AH31" s="182"/>
-      <c r="AI31" s="183"/>
+      <c r="B31" s="127"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="128"/>
+      <c r="J31" s="133"/>
+      <c r="K31" s="134"/>
+      <c r="L31" s="134"/>
+      <c r="M31" s="134"/>
+      <c r="N31" s="134"/>
+      <c r="O31" s="134"/>
+      <c r="P31" s="135"/>
+      <c r="Q31" s="136"/>
+      <c r="R31" s="137"/>
+      <c r="S31" s="137"/>
+      <c r="T31" s="137"/>
+      <c r="U31" s="137"/>
+      <c r="V31" s="137"/>
+      <c r="W31" s="137"/>
+      <c r="X31" s="137"/>
+      <c r="Y31" s="137"/>
+      <c r="Z31" s="137"/>
+      <c r="AA31" s="137"/>
+      <c r="AB31" s="137"/>
+      <c r="AC31" s="137"/>
+      <c r="AD31" s="137"/>
+      <c r="AE31" s="138"/>
+      <c r="AF31" s="133"/>
+      <c r="AG31" s="134"/>
+      <c r="AH31" s="134"/>
+      <c r="AI31" s="135"/>
     </row>
     <row r="32" spans="1:35" s="107" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="109"/>
-      <c r="B32" s="175"/>
-      <c r="C32" s="176"/>
-      <c r="D32" s="177"/>
-      <c r="E32" s="178"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="175"/>
-      <c r="H32" s="180"/>
-      <c r="I32" s="176"/>
-      <c r="J32" s="181"/>
-      <c r="K32" s="187"/>
-      <c r="L32" s="182"/>
-      <c r="M32" s="182"/>
-      <c r="N32" s="182"/>
-      <c r="O32" s="182"/>
-      <c r="P32" s="183"/>
-      <c r="Q32" s="184"/>
-      <c r="R32" s="185"/>
-      <c r="S32" s="185"/>
-      <c r="T32" s="185"/>
-      <c r="U32" s="185"/>
-      <c r="V32" s="185"/>
-      <c r="W32" s="185"/>
-      <c r="X32" s="185"/>
-      <c r="Y32" s="185"/>
-      <c r="Z32" s="185"/>
-      <c r="AA32" s="185"/>
-      <c r="AB32" s="185"/>
-      <c r="AC32" s="185"/>
-      <c r="AD32" s="185"/>
-      <c r="AE32" s="186"/>
-      <c r="AF32" s="181"/>
-      <c r="AG32" s="182"/>
-      <c r="AH32" s="182"/>
-      <c r="AI32" s="183"/>
+      <c r="B32" s="127"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="127"/>
+      <c r="H32" s="132"/>
+      <c r="I32" s="128"/>
+      <c r="J32" s="133"/>
+      <c r="K32" s="139"/>
+      <c r="L32" s="134"/>
+      <c r="M32" s="134"/>
+      <c r="N32" s="134"/>
+      <c r="O32" s="134"/>
+      <c r="P32" s="135"/>
+      <c r="Q32" s="136"/>
+      <c r="R32" s="137"/>
+      <c r="S32" s="137"/>
+      <c r="T32" s="137"/>
+      <c r="U32" s="137"/>
+      <c r="V32" s="137"/>
+      <c r="W32" s="137"/>
+      <c r="X32" s="137"/>
+      <c r="Y32" s="137"/>
+      <c r="Z32" s="137"/>
+      <c r="AA32" s="137"/>
+      <c r="AB32" s="137"/>
+      <c r="AC32" s="137"/>
+      <c r="AD32" s="137"/>
+      <c r="AE32" s="138"/>
+      <c r="AF32" s="133"/>
+      <c r="AG32" s="134"/>
+      <c r="AH32" s="134"/>
+      <c r="AI32" s="135"/>
     </row>
     <row r="33" spans="1:35" s="107" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="109"/>
-      <c r="B33" s="175"/>
-      <c r="C33" s="176"/>
-      <c r="D33" s="177"/>
-      <c r="E33" s="178"/>
-      <c r="F33" s="179"/>
-      <c r="G33" s="175"/>
-      <c r="H33" s="180"/>
-      <c r="I33" s="176"/>
-      <c r="J33" s="181"/>
-      <c r="K33" s="182"/>
-      <c r="L33" s="182"/>
-      <c r="M33" s="182"/>
-      <c r="N33" s="182"/>
-      <c r="O33" s="182"/>
-      <c r="P33" s="183"/>
-      <c r="Q33" s="184"/>
-      <c r="R33" s="185"/>
-      <c r="S33" s="185"/>
-      <c r="T33" s="185"/>
-      <c r="U33" s="185"/>
-      <c r="V33" s="185"/>
-      <c r="W33" s="185"/>
-      <c r="X33" s="185"/>
-      <c r="Y33" s="185"/>
-      <c r="Z33" s="185"/>
-      <c r="AA33" s="185"/>
-      <c r="AB33" s="185"/>
-      <c r="AC33" s="185"/>
-      <c r="AD33" s="185"/>
-      <c r="AE33" s="186"/>
-      <c r="AF33" s="181"/>
-      <c r="AG33" s="182"/>
-      <c r="AH33" s="182"/>
-      <c r="AI33" s="183"/>
+      <c r="B33" s="127"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="131"/>
+      <c r="G33" s="127"/>
+      <c r="H33" s="132"/>
+      <c r="I33" s="128"/>
+      <c r="J33" s="133"/>
+      <c r="K33" s="134"/>
+      <c r="L33" s="134"/>
+      <c r="M33" s="134"/>
+      <c r="N33" s="134"/>
+      <c r="O33" s="134"/>
+      <c r="P33" s="135"/>
+      <c r="Q33" s="136"/>
+      <c r="R33" s="137"/>
+      <c r="S33" s="137"/>
+      <c r="T33" s="137"/>
+      <c r="U33" s="137"/>
+      <c r="V33" s="137"/>
+      <c r="W33" s="137"/>
+      <c r="X33" s="137"/>
+      <c r="Y33" s="137"/>
+      <c r="Z33" s="137"/>
+      <c r="AA33" s="137"/>
+      <c r="AB33" s="137"/>
+      <c r="AC33" s="137"/>
+      <c r="AD33" s="137"/>
+      <c r="AE33" s="138"/>
+      <c r="AF33" s="133"/>
+      <c r="AG33" s="134"/>
+      <c r="AH33" s="134"/>
+      <c r="AI33" s="135"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
@@ -11977,167 +12138,6 @@
     <mergeCell ref="J32:P32"/>
     <mergeCell ref="Q32:AE32"/>
     <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -12294,164 +12294,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="102" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="156" t="s">
         <v>590</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="132" t="str">
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="141" t="s">
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="164"/>
+      <c r="O1" s="171" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="142"/>
-      <c r="Q1" s="142"/>
-      <c r="R1" s="143"/>
-      <c r="S1" s="150" t="str">
+      <c r="P1" s="172"/>
+      <c r="Q1" s="172"/>
+      <c r="R1" s="173"/>
+      <c r="S1" s="180" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">単体テスト仕様書(リクエスト・取引単体（バッチ）)
 </v>
       </c>
-      <c r="T1" s="151"/>
-      <c r="U1" s="151"/>
-      <c r="V1" s="151"/>
-      <c r="W1" s="151"/>
-      <c r="X1" s="151"/>
-      <c r="Y1" s="151"/>
-      <c r="Z1" s="152"/>
-      <c r="AA1" s="126" t="s">
+      <c r="T1" s="181"/>
+      <c r="U1" s="181"/>
+      <c r="V1" s="181"/>
+      <c r="W1" s="181"/>
+      <c r="X1" s="181"/>
+      <c r="Y1" s="181"/>
+      <c r="Z1" s="182"/>
+      <c r="AA1" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="127"/>
-      <c r="AC1" s="128" t="str">
+      <c r="AB1" s="157"/>
+      <c r="AC1" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="129"/>
-      <c r="AE1" s="129"/>
-      <c r="AF1" s="130"/>
-      <c r="AG1" s="188">
+      <c r="AD1" s="159"/>
+      <c r="AE1" s="159"/>
+      <c r="AF1" s="160"/>
+      <c r="AG1" s="189">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>44719</v>
       </c>
-      <c r="AH1" s="189"/>
-      <c r="AI1" s="190"/>
+      <c r="AH1" s="190"/>
+      <c r="AI1" s="191"/>
       <c r="AJ1" s="100"/>
       <c r="AK1" s="100"/>
       <c r="AL1" s="101"/>
     </row>
     <row r="2" spans="1:38" s="102" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="132" t="str">
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="144"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="146"/>
-      <c r="S2" s="153"/>
-      <c r="T2" s="154"/>
-      <c r="U2" s="154"/>
-      <c r="V2" s="154"/>
-      <c r="W2" s="154"/>
-      <c r="X2" s="154"/>
-      <c r="Y2" s="154"/>
-      <c r="Z2" s="155"/>
-      <c r="AA2" s="126" t="s">
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="174"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="175"/>
+      <c r="R2" s="176"/>
+      <c r="S2" s="183"/>
+      <c r="T2" s="184"/>
+      <c r="U2" s="184"/>
+      <c r="V2" s="184"/>
+      <c r="W2" s="184"/>
+      <c r="X2" s="184"/>
+      <c r="Y2" s="184"/>
+      <c r="Z2" s="185"/>
+      <c r="AA2" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="127"/>
-      <c r="AC2" s="128" t="str">
+      <c r="AB2" s="157"/>
+      <c r="AC2" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="129"/>
-      <c r="AE2" s="129"/>
-      <c r="AF2" s="130"/>
-      <c r="AG2" s="188" t="str">
+      <c r="AD2" s="159"/>
+      <c r="AE2" s="159"/>
+      <c r="AF2" s="160"/>
+      <c r="AG2" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="189"/>
-      <c r="AI2" s="190"/>
+      <c r="AH2" s="190"/>
+      <c r="AI2" s="191"/>
       <c r="AJ2" s="100"/>
       <c r="AK2" s="100"/>
       <c r="AL2" s="100"/>
     </row>
     <row r="3" spans="1:38" s="102" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="132" t="str">
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="162" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="133"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="147"/>
-      <c r="P3" s="148"/>
-      <c r="Q3" s="148"/>
-      <c r="R3" s="149"/>
-      <c r="S3" s="156"/>
-      <c r="T3" s="157"/>
-      <c r="U3" s="157"/>
-      <c r="V3" s="157"/>
-      <c r="W3" s="157"/>
-      <c r="X3" s="157"/>
-      <c r="Y3" s="157"/>
-      <c r="Z3" s="158"/>
-      <c r="AA3" s="126"/>
-      <c r="AB3" s="127"/>
-      <c r="AC3" s="128" t="str">
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="177"/>
+      <c r="P3" s="178"/>
+      <c r="Q3" s="178"/>
+      <c r="R3" s="179"/>
+      <c r="S3" s="186"/>
+      <c r="T3" s="187"/>
+      <c r="U3" s="187"/>
+      <c r="V3" s="187"/>
+      <c r="W3" s="187"/>
+      <c r="X3" s="187"/>
+      <c r="Y3" s="187"/>
+      <c r="Z3" s="188"/>
+      <c r="AA3" s="156"/>
+      <c r="AB3" s="157"/>
+      <c r="AC3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="129"/>
-      <c r="AE3" s="129"/>
-      <c r="AF3" s="130"/>
-      <c r="AG3" s="188" t="str">
+      <c r="AD3" s="159"/>
+      <c r="AE3" s="159"/>
+      <c r="AF3" s="160"/>
+      <c r="AG3" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="189"/>
-      <c r="AI3" s="190"/>
+      <c r="AH3" s="190"/>
+      <c r="AI3" s="191"/>
       <c r="AJ3" s="100"/>
       <c r="AK3" s="100"/>
       <c r="AL3" s="100"/>
@@ -13728,6 +13728,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -13737,14 +13745,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -13803,10 +13803,10 @@
       <c r="A6" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="M6" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="O6" s="38" t="s">
         <v>11</v>
       </c>
     </row>
@@ -13814,10 +13814,10 @@
       <c r="A7" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="M7" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="38" t="s">
+      <c r="O7" s="38" t="s">
         <v>12</v>
       </c>
     </row>
@@ -15005,7 +15005,7 @@
       <c r="L42" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M42" s="191">
+      <c r="M42" s="125">
         <v>44722</v>
       </c>
       <c r="N42" s="44" t="s">
@@ -15014,7 +15014,7 @@
       <c r="O42" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P42" s="191">
+      <c r="P42" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -15054,7 +15054,7 @@
       <c r="L43" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M43" s="191">
+      <c r="M43" s="125">
         <v>44722</v>
       </c>
       <c r="N43" s="44" t="s">
@@ -15063,7 +15063,7 @@
       <c r="O43" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P43" s="191">
+      <c r="P43" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -15105,7 +15105,7 @@
       <c r="L44" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M44" s="191">
+      <c r="M44" s="125">
         <v>44722</v>
       </c>
       <c r="N44" s="44" t="s">
@@ -15114,7 +15114,7 @@
       <c r="O44" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P44" s="191">
+      <c r="P44" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -15154,7 +15154,7 @@
       <c r="L45" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M45" s="191">
+      <c r="M45" s="125">
         <v>44722</v>
       </c>
       <c r="N45" s="44" t="s">
@@ -15163,7 +15163,7 @@
       <c r="O45" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P45" s="191">
+      <c r="P45" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -16355,7 +16355,7 @@
       <c r="L80" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M80" s="191">
+      <c r="M80" s="125">
         <v>44722</v>
       </c>
       <c r="N80" s="44" t="s">
@@ -16364,7 +16364,7 @@
       <c r="O80" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P80" s="191">
+      <c r="P80" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -16404,7 +16404,7 @@
       <c r="L81" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M81" s="191">
+      <c r="M81" s="125">
         <v>44722</v>
       </c>
       <c r="N81" s="44" t="s">
@@ -16413,7 +16413,7 @@
       <c r="O81" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P81" s="191">
+      <c r="P81" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -16455,7 +16455,7 @@
       <c r="L82" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M82" s="191">
+      <c r="M82" s="125">
         <v>44722</v>
       </c>
       <c r="N82" s="44" t="s">
@@ -16464,7 +16464,7 @@
       <c r="O82" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P82" s="191">
+      <c r="P82" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -16508,7 +16508,7 @@
       <c r="L83" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M83" s="191">
+      <c r="M83" s="125">
         <v>44722</v>
       </c>
       <c r="N83" s="44" t="s">
@@ -16517,7 +16517,7 @@
       <c r="O83" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P83" s="191">
+      <c r="P83" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -16629,7 +16629,7 @@
       <c r="L86" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M86" s="191">
+      <c r="M86" s="125">
         <v>44722</v>
       </c>
       <c r="N86" s="44" t="s">
@@ -16638,7 +16638,7 @@
       <c r="O86" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P86" s="191">
+      <c r="P86" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -18327,7 +18327,7 @@
       <c r="L134" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M134" s="191">
+      <c r="M134" s="125">
         <v>44722</v>
       </c>
       <c r="N134" s="44" t="s">
@@ -18336,7 +18336,7 @@
       <c r="O134" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P134" s="191">
+      <c r="P134" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -18380,7 +18380,7 @@
       <c r="L135" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M135" s="191">
+      <c r="M135" s="125">
         <v>44722</v>
       </c>
       <c r="N135" s="44" t="s">
@@ -18389,7 +18389,7 @@
       <c r="O135" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P135" s="191">
+      <c r="P135" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -18608,7 +18608,7 @@
       <c r="L141" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M141" s="191">
+      <c r="M141" s="125">
         <v>44722</v>
       </c>
       <c r="N141" s="44" t="s">
@@ -18617,7 +18617,7 @@
       <c r="O141" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P141" s="191">
+      <c r="P141" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -18661,7 +18661,7 @@
       <c r="L142" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M142" s="191">
+      <c r="M142" s="125">
         <v>44722</v>
       </c>
       <c r="N142" s="44" t="s">
@@ -18670,7 +18670,7 @@
       <c r="O142" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P142" s="191">
+      <c r="P142" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -18714,7 +18714,7 @@
       <c r="L143" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M143" s="191">
+      <c r="M143" s="125">
         <v>44722</v>
       </c>
       <c r="N143" s="44" t="s">
@@ -18723,7 +18723,7 @@
       <c r="O143" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P143" s="191">
+      <c r="P143" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -18802,7 +18802,7 @@
       <c r="L145" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M145" s="191">
+      <c r="M145" s="125">
         <v>44722</v>
       </c>
       <c r="N145" s="44" t="s">
@@ -18811,7 +18811,7 @@
       <c r="O145" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P145" s="191">
+      <c r="P145" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -19057,7 +19057,7 @@
       <c r="L152" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M152" s="191">
+      <c r="M152" s="125">
         <v>44722</v>
       </c>
       <c r="N152" s="44" t="s">
@@ -19066,7 +19066,7 @@
       <c r="O152" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P152" s="191">
+      <c r="P152" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -19106,7 +19106,7 @@
       <c r="L153" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M153" s="191">
+      <c r="M153" s="125">
         <v>44722</v>
       </c>
       <c r="N153" s="44" t="s">
@@ -19115,7 +19115,7 @@
       <c r="O153" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P153" s="191">
+      <c r="P153" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -19155,7 +19155,7 @@
       <c r="L154" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M154" s="191">
+      <c r="M154" s="125">
         <v>44722</v>
       </c>
       <c r="N154" s="44" t="s">
@@ -19164,7 +19164,7 @@
       <c r="O154" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P154" s="191">
+      <c r="P154" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -19204,7 +19204,7 @@
       <c r="L155" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M155" s="191">
+      <c r="M155" s="125">
         <v>44722</v>
       </c>
       <c r="N155" s="44" t="s">
@@ -19213,7 +19213,7 @@
       <c r="O155" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P155" s="191">
+      <c r="P155" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -19253,7 +19253,7 @@
       <c r="L156" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M156" s="191">
+      <c r="M156" s="125">
         <v>44722</v>
       </c>
       <c r="N156" s="44" t="s">
@@ -19262,7 +19262,7 @@
       <c r="O156" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P156" s="191">
+      <c r="P156" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -19302,7 +19302,7 @@
       <c r="L157" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M157" s="191">
+      <c r="M157" s="125">
         <v>44722</v>
       </c>
       <c r="N157" s="44" t="s">
@@ -19311,7 +19311,7 @@
       <c r="O157" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P157" s="191">
+      <c r="P157" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -19351,7 +19351,7 @@
       <c r="L158" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M158" s="191">
+      <c r="M158" s="125">
         <v>44722</v>
       </c>
       <c r="N158" s="44" t="s">
@@ -19360,7 +19360,7 @@
       <c r="O158" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P158" s="191">
+      <c r="P158" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -19400,7 +19400,7 @@
       <c r="L159" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M159" s="191">
+      <c r="M159" s="125">
         <v>44722</v>
       </c>
       <c r="N159" s="44" t="s">
@@ -19409,7 +19409,7 @@
       <c r="O159" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P159" s="191">
+      <c r="P159" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -19449,7 +19449,7 @@
       <c r="L160" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M160" s="191">
+      <c r="M160" s="125">
         <v>44722</v>
       </c>
       <c r="N160" s="44" t="s">
@@ -19458,7 +19458,7 @@
       <c r="O160" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P160" s="191">
+      <c r="P160" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -19498,7 +19498,7 @@
       <c r="L161" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M161" s="191">
+      <c r="M161" s="125">
         <v>44722</v>
       </c>
       <c r="N161" s="44" t="s">
@@ -19507,7 +19507,7 @@
       <c r="O161" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P161" s="191">
+      <c r="P161" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -19547,7 +19547,7 @@
       <c r="L162" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M162" s="191">
+      <c r="M162" s="125">
         <v>44722</v>
       </c>
       <c r="N162" s="44" t="s">
@@ -19556,7 +19556,7 @@
       <c r="O162" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P162" s="191">
+      <c r="P162" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -19596,7 +19596,7 @@
       <c r="L163" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M163" s="191">
+      <c r="M163" s="125">
         <v>44722</v>
       </c>
       <c r="N163" s="44" t="s">
@@ -19605,7 +19605,7 @@
       <c r="O163" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P163" s="191">
+      <c r="P163" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -19645,7 +19645,7 @@
       <c r="L164" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M164" s="191">
+      <c r="M164" s="125">
         <v>44722</v>
       </c>
       <c r="N164" s="44" t="s">
@@ -19654,7 +19654,7 @@
       <c r="O164" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P164" s="191">
+      <c r="P164" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -20096,7 +20096,7 @@
       <c r="L177" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M177" s="191">
+      <c r="M177" s="125">
         <v>44722</v>
       </c>
       <c r="N177" s="44" t="s">
@@ -20105,7 +20105,7 @@
       <c r="O177" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P177" s="191">
+      <c r="P177" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -20145,7 +20145,7 @@
       <c r="L178" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M178" s="191">
+      <c r="M178" s="125">
         <v>44722</v>
       </c>
       <c r="N178" s="44" t="s">
@@ -20154,7 +20154,7 @@
       <c r="O178" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P178" s="191">
+      <c r="P178" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -20194,7 +20194,7 @@
       <c r="L179" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M179" s="191">
+      <c r="M179" s="125">
         <v>44722</v>
       </c>
       <c r="N179" s="44" t="s">
@@ -20203,7 +20203,7 @@
       <c r="O179" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P179" s="191">
+      <c r="P179" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -20243,7 +20243,7 @@
       <c r="L180" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M180" s="191">
+      <c r="M180" s="125">
         <v>44722</v>
       </c>
       <c r="N180" s="44" t="s">
@@ -20252,7 +20252,7 @@
       <c r="O180" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P180" s="191">
+      <c r="P180" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -20292,7 +20292,7 @@
       <c r="L181" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M181" s="191">
+      <c r="M181" s="125">
         <v>44722</v>
       </c>
       <c r="N181" s="44" t="s">
@@ -20301,7 +20301,7 @@
       <c r="O181" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P181" s="191">
+      <c r="P181" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -20341,7 +20341,7 @@
       <c r="L182" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M182" s="191">
+      <c r="M182" s="125">
         <v>44722</v>
       </c>
       <c r="N182" s="44" t="s">
@@ -20350,7 +20350,7 @@
       <c r="O182" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P182" s="191">
+      <c r="P182" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -20390,7 +20390,7 @@
       <c r="L183" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M183" s="191">
+      <c r="M183" s="125">
         <v>44722</v>
       </c>
       <c r="N183" s="44" t="s">
@@ -20399,7 +20399,7 @@
       <c r="O183" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P183" s="191">
+      <c r="P183" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -20439,7 +20439,7 @@
       <c r="L184" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M184" s="191">
+      <c r="M184" s="125">
         <v>44722</v>
       </c>
       <c r="N184" s="44" t="s">
@@ -20448,7 +20448,7 @@
       <c r="O184" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P184" s="191">
+      <c r="P184" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -20488,7 +20488,7 @@
       <c r="L185" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M185" s="191">
+      <c r="M185" s="125">
         <v>44722</v>
       </c>
       <c r="N185" s="44" t="s">
@@ -20497,7 +20497,7 @@
       <c r="O185" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P185" s="191">
+      <c r="P185" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -20537,7 +20537,7 @@
       <c r="L186" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M186" s="191">
+      <c r="M186" s="125">
         <v>44722</v>
       </c>
       <c r="N186" s="44" t="s">
@@ -20546,7 +20546,7 @@
       <c r="O186" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P186" s="191">
+      <c r="P186" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -20586,7 +20586,7 @@
       <c r="L187" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M187" s="191">
+      <c r="M187" s="125">
         <v>44722</v>
       </c>
       <c r="N187" s="44" t="s">
@@ -20595,7 +20595,7 @@
       <c r="O187" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P187" s="191">
+      <c r="P187" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -20635,7 +20635,7 @@
       <c r="L188" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M188" s="191">
+      <c r="M188" s="125">
         <v>44722</v>
       </c>
       <c r="N188" s="44" t="s">
@@ -20644,7 +20644,7 @@
       <c r="O188" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P188" s="191">
+      <c r="P188" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -20684,7 +20684,7 @@
       <c r="L189" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M189" s="191">
+      <c r="M189" s="125">
         <v>44722</v>
       </c>
       <c r="N189" s="44" t="s">
@@ -20693,7 +20693,7 @@
       <c r="O189" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P189" s="191">
+      <c r="P189" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -20735,7 +20735,7 @@
       <c r="L190" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M190" s="191">
+      <c r="M190" s="125">
         <v>44722</v>
       </c>
       <c r="N190" s="44" t="s">
@@ -20744,7 +20744,7 @@
       <c r="O190" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P190" s="191">
+      <c r="P190" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -20784,7 +20784,7 @@
       <c r="L191" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M191" s="191">
+      <c r="M191" s="125">
         <v>44722</v>
       </c>
       <c r="N191" s="44" t="s">
@@ -20793,7 +20793,7 @@
       <c r="O191" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P191" s="191">
+      <c r="P191" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -20833,7 +20833,7 @@
       <c r="L192" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M192" s="191">
+      <c r="M192" s="125">
         <v>44722</v>
       </c>
       <c r="N192" s="44" t="s">
@@ -20842,7 +20842,7 @@
       <c r="O192" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P192" s="191">
+      <c r="P192" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -20882,7 +20882,7 @@
       <c r="L193" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M193" s="191">
+      <c r="M193" s="125">
         <v>44722</v>
       </c>
       <c r="N193" s="44" t="s">
@@ -20891,7 +20891,7 @@
       <c r="O193" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P193" s="191">
+      <c r="P193" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -20931,7 +20931,7 @@
       <c r="L194" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M194" s="191">
+      <c r="M194" s="125">
         <v>44722</v>
       </c>
       <c r="N194" s="44" t="s">
@@ -20940,7 +20940,7 @@
       <c r="O194" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P194" s="191">
+      <c r="P194" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -20980,7 +20980,7 @@
       <c r="L195" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M195" s="191">
+      <c r="M195" s="125">
         <v>44722</v>
       </c>
       <c r="N195" s="44" t="s">
@@ -20989,7 +20989,7 @@
       <c r="O195" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P195" s="191">
+      <c r="P195" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -21029,7 +21029,7 @@
       <c r="L196" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M196" s="191">
+      <c r="M196" s="125">
         <v>44722</v>
       </c>
       <c r="N196" s="44" t="s">
@@ -21038,7 +21038,7 @@
       <c r="O196" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P196" s="191">
+      <c r="P196" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -21078,7 +21078,7 @@
       <c r="L197" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M197" s="191">
+      <c r="M197" s="125">
         <v>44722</v>
       </c>
       <c r="N197" s="44" t="s">
@@ -21087,7 +21087,7 @@
       <c r="O197" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P197" s="191">
+      <c r="P197" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -21127,7 +21127,7 @@
       <c r="L198" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M198" s="191">
+      <c r="M198" s="125">
         <v>44722</v>
       </c>
       <c r="N198" s="44" t="s">
@@ -21136,7 +21136,7 @@
       <c r="O198" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P198" s="191">
+      <c r="P198" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -21176,7 +21176,7 @@
       <c r="L199" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M199" s="191">
+      <c r="M199" s="125">
         <v>44722</v>
       </c>
       <c r="N199" s="44" t="s">
@@ -21185,7 +21185,7 @@
       <c r="O199" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P199" s="191">
+      <c r="P199" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -21225,7 +21225,7 @@
       <c r="L200" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M200" s="191">
+      <c r="M200" s="125">
         <v>44722</v>
       </c>
       <c r="N200" s="44" t="s">
@@ -21234,7 +21234,7 @@
       <c r="O200" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P200" s="191">
+      <c r="P200" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -21274,7 +21274,7 @@
       <c r="L201" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M201" s="191">
+      <c r="M201" s="125">
         <v>44722</v>
       </c>
       <c r="N201" s="44" t="s">
@@ -21283,7 +21283,7 @@
       <c r="O201" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P201" s="191">
+      <c r="P201" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -21323,7 +21323,7 @@
       <c r="L202" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M202" s="191">
+      <c r="M202" s="125">
         <v>44722</v>
       </c>
       <c r="N202" s="44" t="s">
@@ -21332,7 +21332,7 @@
       <c r="O202" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P202" s="191">
+      <c r="P202" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -21374,7 +21374,7 @@
       <c r="L203" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M203" s="191">
+      <c r="M203" s="125">
         <v>44722</v>
       </c>
       <c r="N203" s="44" t="s">
@@ -21383,7 +21383,7 @@
       <c r="O203" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P203" s="191">
+      <c r="P203" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -21423,7 +21423,7 @@
       <c r="L204" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M204" s="191">
+      <c r="M204" s="125">
         <v>44722</v>
       </c>
       <c r="N204" s="44" t="s">
@@ -21432,7 +21432,7 @@
       <c r="O204" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P204" s="191">
+      <c r="P204" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -21608,7 +21608,7 @@
       <c r="L209" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M209" s="191">
+      <c r="M209" s="125">
         <v>44722</v>
       </c>
       <c r="N209" s="44" t="s">
@@ -21617,7 +21617,7 @@
       <c r="O209" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P209" s="191">
+      <c r="P209" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -21692,7 +21692,7 @@
       <c r="L211" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M211" s="191">
+      <c r="M211" s="125">
         <v>44722</v>
       </c>
       <c r="N211" s="44" t="s">
@@ -21701,7 +21701,7 @@
       <c r="O211" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P211" s="191">
+      <c r="P211" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -21809,7 +21809,7 @@
       <c r="L214" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M214" s="191">
+      <c r="M214" s="125">
         <v>44722</v>
       </c>
       <c r="N214" s="44" t="s">
@@ -21818,7 +21818,7 @@
       <c r="O214" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P214" s="191">
+      <c r="P214" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -21961,7 +21961,7 @@
       <c r="L218" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M218" s="191">
+      <c r="M218" s="125">
         <v>44722</v>
       </c>
       <c r="N218" s="44" t="s">
@@ -21970,7 +21970,7 @@
       <c r="O218" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P218" s="191">
+      <c r="P218" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -26017,7 +26017,7 @@
       <c r="L336" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M336" s="191">
+      <c r="M336" s="125">
         <v>44722</v>
       </c>
       <c r="N336" s="44" t="s">
@@ -26026,7 +26026,7 @@
       <c r="O336" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P336" s="191">
+      <c r="P336" s="125">
         <v>44729</v>
       </c>
     </row>
@@ -26068,7 +26068,7 @@
       <c r="L337" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="M337" s="191">
+      <c r="M337" s="125">
         <v>44722</v>
       </c>
       <c r="N337" s="44" t="s">
@@ -26077,7 +26077,7 @@
       <c r="O337" s="44" t="s">
         <v>626</v>
       </c>
-      <c r="P337" s="191">
+      <c r="P337" s="125">
         <v>44729</v>
       </c>
     </row>
